--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_8_2.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_8_2.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999987020390719</v>
+        <v>0.9999989699042762</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990424435384292</v>
+        <v>0.9990244677798398</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999913491207489</v>
+        <v>0.9999684164407366</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999495632693921</v>
+        <v>0.9999987730294633</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999693457066597</v>
+        <v>0.9999958254641106</v>
       </c>
       <c r="G2" t="n">
-        <v>1.211589552480408e-05</v>
+        <v>9.615491421736449e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008938369250054949</v>
+        <v>0.0009106165066041113</v>
       </c>
       <c r="I2" t="n">
-        <v>7.348198089242768e-06</v>
+        <v>5.445466703584143e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>5.825477786979377e-05</v>
+        <v>5.642146659887532e-07</v>
       </c>
       <c r="K2" t="n">
-        <v>3.280148797951827e-05</v>
+        <v>3.004840684786449e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002739429016665228</v>
+        <v>5.129893614687497e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>0.003480789497341671</v>
+        <v>0.0009805861217525185</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000311510622745</v>
+        <v>1.000024722297372</v>
       </c>
       <c r="O2" t="n">
-        <v>0.003628973912471091</v>
+        <v>0.001022331703048629</v>
       </c>
       <c r="P2" t="n">
-        <v>72.64198457549595</v>
+        <v>77.70944032663732</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.113880197201</v>
+        <v>108.1813359483423</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_1</t>
+          <t>model_8_2_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999884556932745</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990420854676983</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999922136976664</v>
+        <v>0.9999684164407366</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999550748877805</v>
+        <v>0.9999987724631316</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999726634832493</v>
+        <v>0.9999958252832108</v>
       </c>
       <c r="G3" t="n">
-        <v>1.077610359174538e-05</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008941711683152971</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I3" t="n">
-        <v>6.613812338512877e-06</v>
+        <v>5.445466703584143e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>5.188881994498263e-05</v>
+        <v>5.644750900211889e-07</v>
       </c>
       <c r="K3" t="n">
-        <v>2.925131614174775e-05</v>
+        <v>3.004970896802666e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002608042413654511</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00328269760894076</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000277063361411</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O3" t="n">
-        <v>0.003422448842274215</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P3" t="n">
-        <v>72.87635901142299</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.348254633128</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_2</t>
+          <t>model_8_2_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999896334470125</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990418758097687</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999929956158684</v>
+        <v>0.9999684164407366</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999593258541138</v>
+        <v>0.9999987724631316</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999752680781726</v>
+        <v>0.9999958252832108</v>
       </c>
       <c r="G4" t="n">
-        <v>9.676722174695253e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000894366874789705</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I4" t="n">
-        <v>5.949638250434119e-06</v>
+        <v>5.445466703584143e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>4.697892399227297e-05</v>
+        <v>5.644750900211889e-07</v>
       </c>
       <c r="K4" t="n">
-        <v>2.646428112135354e-05</v>
+        <v>3.004970896802666e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002467795588594341</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00311074302614267</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000248797271699</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O4" t="n">
-        <v>0.003243173796891352</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P4" t="n">
-        <v>73.09157466467305</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q4" t="n">
-        <v>103.5634702863781</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_3</t>
+          <t>model_8_2_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999906396737538</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990417258109346</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999937340369606</v>
+        <v>0.9999684164407366</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999628549936735</v>
+        <v>0.9999987724631316</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999774658389177</v>
+        <v>0.9999958252832108</v>
       </c>
       <c r="G5" t="n">
-        <v>8.737453679996732e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008945068921171065</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I5" t="n">
-        <v>5.322411317657092e-06</v>
+        <v>5.445466703584143e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>4.290274302960658e-05</v>
+        <v>5.644750900211889e-07</v>
       </c>
       <c r="K5" t="n">
-        <v>2.411257717363183e-05</v>
+        <v>3.004970896802666e-06</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002328413912673789</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002955918415653032</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000224647829909</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O5" t="n">
-        <v>0.003081757982202044</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P5" t="n">
-        <v>73.29578350341265</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.7676791251177</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_4</t>
+          <t>model_8_2_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999914993788542</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990416015280816</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999943837271855</v>
+        <v>0.9999684164407366</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999658209525197</v>
+        <v>0.9999987724631316</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999793244331791</v>
+        <v>0.9999958252832108</v>
       </c>
       <c r="G6" t="n">
-        <v>7.934956705404531e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008946229047049791</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I6" t="n">
-        <v>4.770553832355778e-06</v>
+        <v>5.445466703584143e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>3.947703974403086e-05</v>
+        <v>5.644750900211889e-07</v>
       </c>
       <c r="K6" t="n">
-        <v>2.212379678819331e-05</v>
+        <v>3.004970896802666e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002193322564072295</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002816905519431657</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000204014907498</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002936827019192159</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P6" t="n">
-        <v>73.48846532031297</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.960360942018</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_5</t>
+          <t>model_8_2_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999922419378898</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990414590664987</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999949297343212</v>
+        <v>0.9999684164407366</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999683989468109</v>
+        <v>0.9999987724631316</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999809324904755</v>
+        <v>0.9999958252832108</v>
       </c>
       <c r="G7" t="n">
-        <v>7.241810440234914e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008947558863392865</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I7" t="n">
-        <v>4.3067664559149e-06</v>
+        <v>5.445466703584143e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>3.649943824267013e-05</v>
+        <v>5.644750900211889e-07</v>
       </c>
       <c r="K7" t="n">
-        <v>2.040310234929251e-05</v>
+        <v>3.004970896802666e-06</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002064182549099602</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002691061210793042</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000186193490644</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002805625257801167</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P7" t="n">
-        <v>73.67127864404142</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q7" t="n">
-        <v>104.1431742657464</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_6</t>
+          <t>model_8_2_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999928615666434</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990413397113079</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999953691872093</v>
+        <v>0.9999684164407366</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999705469248816</v>
+        <v>0.9999987724631316</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999822661759425</v>
+        <v>0.9999958252832108</v>
       </c>
       <c r="G8" t="n">
-        <v>6.663414197422457e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008948672991707761</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I8" t="n">
-        <v>3.933487997290244e-06</v>
+        <v>5.445466703584143e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>3.401850849425129e-05</v>
+        <v>5.644750900211889e-07</v>
       </c>
       <c r="K8" t="n">
-        <v>1.897599824577077e-05</v>
+        <v>3.004970896802666e-06</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001943944668179024</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0025813589826722</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N8" t="n">
-        <v>1.00017132240056</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002691252778714302</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P8" t="n">
-        <v>73.83775712502501</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q8" t="n">
-        <v>104.30965274673</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_7</t>
+          <t>model_8_2_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999933840831685</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990412263204512</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999957130665349</v>
+        <v>0.9999684164407366</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999723758467823</v>
+        <v>0.9999987724631316</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999833897330228</v>
+        <v>0.9999958252832108</v>
       </c>
       <c r="G9" t="n">
-        <v>6.175667956998467e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H9" t="n">
-        <v>0.000894973144558189</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I9" t="n">
-        <v>3.641391283217884e-06</v>
+        <v>5.445466703584143e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>3.190609086159457e-05</v>
+        <v>5.644750900211889e-07</v>
       </c>
       <c r="K9" t="n">
-        <v>1.777374107240623e-05</v>
+        <v>3.004970896802666e-06</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001832722688208125</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002485089124558406</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000158782003956</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002590884513434525</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P9" t="n">
-        <v>73.98978702025295</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q9" t="n">
-        <v>104.461682641958</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_8</t>
+          <t>model_8_2_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999938254433914</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990410941562526</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999959748049339</v>
+        <v>0.9999684164407366</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999739475502989</v>
+        <v>0.9999987724631316</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999843418670697</v>
+        <v>0.9999958252832108</v>
       </c>
       <c r="G10" t="n">
-        <v>5.763677562354798e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008950965140362339</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I10" t="n">
-        <v>3.419066413454578e-06</v>
+        <v>5.445466703584143e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>3.009076226806672e-05</v>
+        <v>5.644750900211889e-07</v>
       </c>
       <c r="K10" t="n">
-        <v>1.675491434076065e-05</v>
+        <v>3.004970896802666e-06</v>
       </c>
       <c r="L10" t="n">
-        <v>0.000173065775613107</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00240076603657141</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000148189358605</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002502971617019067</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P10" t="n">
-        <v>74.12786964260476</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q10" t="n">
-        <v>104.5997652643098</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_9</t>
+          <t>model_8_2_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999942040337578</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990409585654559</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999961776596148</v>
+        <v>0.9999684164407366</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999753227213052</v>
+        <v>0.9999987724631316</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999851645611881</v>
+        <v>0.9999958252832108</v>
       </c>
       <c r="G11" t="n">
-        <v>5.410280073513862e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008952230820932105</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I11" t="n">
-        <v>3.246758335213603e-06</v>
+        <v>5.445466703584143e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>2.85024301035117e-05</v>
+        <v>5.644750900211889e-07</v>
       </c>
       <c r="K11" t="n">
-        <v>1.587459421936265e-05</v>
+        <v>3.004970896802666e-06</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001635487703631802</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002326000875647699</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000139103189812</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002425023548409613</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P11" t="n">
-        <v>74.25441939369995</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q11" t="n">
-        <v>104.726315015405</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_10</t>
+          <t>model_8_2_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999945267995117</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990408361611168</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999963196271465</v>
+        <v>0.9999684164407366</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999765265896023</v>
+        <v>0.9999987724631316</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999858706367258</v>
+        <v>0.9999958252832108</v>
       </c>
       <c r="G12" t="n">
-        <v>5.108992410103133e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008953373411709064</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I12" t="n">
-        <v>3.126168795645774e-06</v>
+        <v>5.445466703584143e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>2.711195377020765e-05</v>
+        <v>5.644750900211889e-07</v>
       </c>
       <c r="K12" t="n">
-        <v>1.511906128292671e-05</v>
+        <v>3.004970896802666e-06</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001548300098264913</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>0.002260308034340261</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000131356811718</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O12" t="n">
-        <v>0.002356534026844789</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P12" t="n">
-        <v>74.36901670642031</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q12" t="n">
-        <v>104.8409123281253</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_11</t>
+          <t>model_8_2_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.999994795574808</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990407065001153</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999964140675658</v>
+        <v>0.9999684164407366</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999775481151346</v>
+        <v>0.9999987724631316</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999864594380523</v>
+        <v>0.9999958252832108</v>
       </c>
       <c r="G13" t="n">
-        <v>4.858102468867887e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008954583740242834</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I13" t="n">
-        <v>3.045949561483869e-06</v>
+        <v>5.445466703584143e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>2.593208461030479e-05</v>
+        <v>5.644750900211889e-07</v>
       </c>
       <c r="K13" t="n">
-        <v>1.448901708589433e-05</v>
+        <v>3.004970896802666e-06</v>
       </c>
       <c r="L13" t="n">
-        <v>0.000146927190774623</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M13" t="n">
-        <v>0.002204110357688083</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000124906204609</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0022979438987523</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P13" t="n">
-        <v>74.46972526959476</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q13" t="n">
-        <v>104.9416208912998</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999950269993257</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9990405913925492</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999964741822326</v>
+        <v>0.9999684164407366</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999784542996695</v>
+        <v>0.9999987724631316</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999869723657269</v>
+        <v>0.9999958252832108</v>
       </c>
       <c r="G14" t="n">
-        <v>4.642077839910237e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008955658218847134</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I14" t="n">
-        <v>2.994887181984474e-06</v>
+        <v>5.445466703584143e-06</v>
       </c>
       <c r="J14" t="n">
-        <v>2.488543511200814e-05</v>
+        <v>5.644750900211889e-07</v>
       </c>
       <c r="K14" t="n">
-        <v>1.394016114699631e-05</v>
+        <v>3.004970896802666e-06</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0001396966856082874</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>0.002154548175351444</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000119352016182</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O14" t="n">
-        <v>0.00224627175170573</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P14" t="n">
-        <v>74.56069696327549</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q14" t="n">
-        <v>105.0325925849805</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_13</t>
+          <t>model_8_2_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.999995221417982</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9990404766000838</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999965039691424</v>
+        <v>0.9999684164407366</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999792343654434</v>
+        <v>0.9999987724631316</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999874051898221</v>
+        <v>0.9999958252832108</v>
       </c>
       <c r="G15" t="n">
-        <v>4.460596558290706e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H15" t="n">
-        <v>0.000895672975612337</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I15" t="n">
-        <v>2.969585694336545e-06</v>
+        <v>5.445466703584143e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>2.398445366770508e-05</v>
+        <v>5.644750900211889e-07</v>
       </c>
       <c r="K15" t="n">
-        <v>1.347701968102081e-05</v>
+        <v>3.004970896802666e-06</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0001331633664531419</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>0.002112012442740503</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000114685968431</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O15" t="n">
-        <v>0.002201925184896436</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P15" t="n">
-        <v>74.64045608682549</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q15" t="n">
-        <v>105.1123517085305</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_14</t>
+          <t>model_8_2_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999953898688223</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990403574715832</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999965106468086</v>
+        <v>0.9999684164407366</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999799327936874</v>
+        <v>0.9999987724631316</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999877847819325</v>
+        <v>0.9999958252832108</v>
       </c>
       <c r="G16" t="n">
-        <v>4.303355093050848e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008957841768385505</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I16" t="n">
-        <v>2.963913575710151e-06</v>
+        <v>5.445466703584143e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>2.31777641437574e-05</v>
+        <v>5.644750900211889e-07</v>
       </c>
       <c r="K16" t="n">
-        <v>1.307083885973378e-05</v>
+        <v>3.004970896802666e-06</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001271960557023487</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>0.002074452962361607</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000110643148265</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O16" t="n">
-        <v>0.002162766719678967</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P16" t="n">
-        <v>74.71223117061389</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.1841267923189</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_15</t>
+          <t>model_8_2_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999955343922432</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9990402436649696</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999965022016515</v>
+        <v>0.9999684164407366</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999805478258038</v>
+        <v>0.9999987724631316</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999881133628066</v>
+        <v>0.9999958252832108</v>
       </c>
       <c r="G17" t="n">
-        <v>4.168448823482379e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008958904103168126</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I17" t="n">
-        <v>2.971087030072577e-06</v>
+        <v>5.445466703584143e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>2.2467397732267e-05</v>
+        <v>5.644750900211889e-07</v>
       </c>
       <c r="K17" t="n">
-        <v>1.271924238116979e-05</v>
+        <v>3.004970896802666e-06</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0001224463163764404</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002041677943134612</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000107174586163</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O17" t="n">
-        <v>0.002128596400029836</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P17" t="n">
-        <v>74.77593315226694</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q17" t="n">
-        <v>105.247828773972</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_16</t>
+          <t>model_8_2_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.999995657627795</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990401403269994</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999964787461731</v>
+        <v>0.9999684164407366</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999810893188819</v>
+        <v>0.9999987724631316</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999883962969677</v>
+        <v>0.9999958252832108</v>
       </c>
       <c r="G18" t="n">
-        <v>4.053413845289729e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008959868717759625</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I18" t="n">
-        <v>2.991010496295412e-06</v>
+        <v>5.445466703584143e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>2.184196942636672e-05</v>
+        <v>5.644750900211889e-07</v>
       </c>
       <c r="K18" t="n">
-        <v>1.241648996133107e-05</v>
+        <v>3.004970896802666e-06</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0001193537413567129</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M18" t="n">
-        <v>0.002013309177769209</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000104216932921</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O18" t="n">
-        <v>0.002099019917591388</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P18" t="n">
-        <v>74.83190221428899</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q18" t="n">
-        <v>105.303797835994</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_17</t>
+          <t>model_8_2_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999957631301353</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9990400399169604</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999964470097821</v>
+        <v>0.9999684164407366</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999815642077527</v>
+        <v>0.9999987724631316</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999886399980912</v>
+        <v>0.9999958252832108</v>
       </c>
       <c r="G19" t="n">
-        <v>3.954932041654787e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008960806001398169</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I19" t="n">
-        <v>3.017967905084131e-06</v>
+        <v>5.445466703584143e-06</v>
       </c>
       <c r="J19" t="n">
-        <v>2.129346944725563e-05</v>
+        <v>5.644750900211889e-07</v>
       </c>
       <c r="K19" t="n">
-        <v>1.215571867616988e-05</v>
+        <v>3.004970896802666e-06</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0001165927290525221</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M19" t="n">
-        <v>0.001988701094095035</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000101684876753</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O19" t="n">
-        <v>0.002073364216849448</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P19" t="n">
-        <v>74.8810942795723</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q19" t="n">
-        <v>105.3529899012773</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_18</t>
+          <t>model_8_2_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999958550515837</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9990399546762134</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D20" t="n">
-        <v>0.999996408661495</v>
+        <v>0.9999684164407366</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999819909679548</v>
+        <v>0.9999987724631316</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999888550998681</v>
+        <v>0.9999958252832108</v>
       </c>
       <c r="G20" t="n">
-        <v>3.869127404404805e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008961601686355195</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I20" t="n">
-        <v>3.05054156626957e-06</v>
+        <v>5.445466703584143e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>2.080055841838796e-05</v>
+        <v>5.644750900211889e-07</v>
       </c>
       <c r="K20" t="n">
-        <v>1.192554999232877e-05</v>
+        <v>3.004970896802666e-06</v>
       </c>
       <c r="L20" t="n">
-        <v>0.000114345519219817</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M20" t="n">
-        <v>0.001967009762152899</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000099478761991</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O20" t="n">
-        <v>0.002050749439999289</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P20" t="n">
-        <v>74.9249631064886</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q20" t="n">
-        <v>105.3968587281936</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_19</t>
+          <t>model_8_2_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999959340112701</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9990398678203539</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999963675582946</v>
+        <v>0.9999684164407366</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999823666033745</v>
+        <v>0.9999987724631316</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999890415161583</v>
+        <v>0.9999958252832108</v>
       </c>
       <c r="G21" t="n">
-        <v>3.795422003103633e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008962412447678533</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I21" t="n">
-        <v>3.085455295913205e-06</v>
+        <v>5.445466703584143e-06</v>
       </c>
       <c r="J21" t="n">
-        <v>2.036669687204636e-05</v>
+        <v>5.644750900211889e-07</v>
       </c>
       <c r="K21" t="n">
-        <v>1.172607608397979e-05</v>
+        <v>3.004970896802666e-06</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0001123064389471135</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M21" t="n">
-        <v>0.001948184283660977</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000097583729518</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O21" t="n">
-        <v>0.002031122521913852</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P21" t="n">
-        <v>74.96342990707022</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q21" t="n">
-        <v>105.4353255287752</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_20</t>
+          <t>model_8_2_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999960014264669</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9990397905094002</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999963243925568</v>
+        <v>0.9999684164407366</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999826949799576</v>
+        <v>0.9999987724631316</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999892016082211</v>
+        <v>0.9999958252832108</v>
       </c>
       <c r="G22" t="n">
-        <v>3.732492876045401e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008963134111496108</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I22" t="n">
-        <v>3.122120978394797e-06</v>
+        <v>5.445466703584143e-06</v>
       </c>
       <c r="J22" t="n">
-        <v>1.998741961369962e-05</v>
+        <v>5.644750900211889e-07</v>
       </c>
       <c r="K22" t="n">
-        <v>1.155477029604721e-05</v>
+        <v>3.004970896802666e-06</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0001104670833447014</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M22" t="n">
-        <v>0.001931966064931111</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000095965764793</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O22" t="n">
-        <v>0.002014213860036315</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P22" t="n">
-        <v>74.9968684323261</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q22" t="n">
-        <v>105.4687640540311</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_21</t>
+          <t>model_8_2_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999960607778047</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9990397226252079</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999962804647067</v>
+        <v>0.9999684164407366</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999829915824935</v>
+        <v>0.9999987724631316</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999893442493443</v>
+        <v>0.9999958252832108</v>
       </c>
       <c r="G23" t="n">
-        <v>3.677091007481148e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008963767780633006</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I23" t="n">
-        <v>3.159434011489282e-06</v>
+        <v>5.445466703584143e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>1.964484160283936e-05</v>
+        <v>5.644750900211889e-07</v>
       </c>
       <c r="K23" t="n">
-        <v>1.140213780716432e-05</v>
+        <v>3.004970896802666e-06</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0001088106425841048</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M23" t="n">
-        <v>0.001917574250839103</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000094541332688</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O23" t="n">
-        <v>0.001999209356623248</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P23" t="n">
-        <v>75.02677721096124</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q23" t="n">
-        <v>105.4986728326663</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_22</t>
+          <t>model_8_2_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999961127479354</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9990396564618217</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999962344919758</v>
+        <v>0.9999684164407366</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999832591553223</v>
+        <v>0.9999987724631316</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999894704115087</v>
+        <v>0.9999958252832108</v>
       </c>
       <c r="G24" t="n">
-        <v>3.628579171581831e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0008964385386800713</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I24" t="n">
-        <v>3.198483999756514e-06</v>
+        <v>5.445466703584143e-06</v>
       </c>
       <c r="J24" t="n">
-        <v>1.933579310748453e-05</v>
+        <v>5.644750900211889e-07</v>
       </c>
       <c r="K24" t="n">
-        <v>1.126713855362052e-05</v>
+        <v>3.004970896802666e-06</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0001073204187395127</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M24" t="n">
-        <v>0.001904882981073071</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N24" t="n">
-        <v>1.00009329404955</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O24" t="n">
-        <v>0.001985977793228727</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P24" t="n">
-        <v>75.05333879819374</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q24" t="n">
-        <v>105.5252344198988</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_23</t>
+          <t>model_8_2_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999961573636075</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9990395960201888</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999961902641425</v>
+        <v>0.9999684164407366</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999834934961355</v>
+        <v>0.9999987724631316</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999895793309167</v>
+        <v>0.9999958252832108</v>
       </c>
       <c r="G25" t="n">
-        <v>3.586932400159524e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008964949582913021</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I25" t="n">
-        <v>3.236051843521951e-06</v>
+        <v>5.445466703584143e-06</v>
       </c>
       <c r="J25" t="n">
-        <v>1.906512782346552e-05</v>
+        <v>5.644750900211889e-07</v>
       </c>
       <c r="K25" t="n">
-        <v>1.115058983349374e-05</v>
+        <v>3.004970896802666e-06</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0001059756166978236</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M25" t="n">
-        <v>0.001893919850510978</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000092223273421</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O25" t="n">
-        <v>0.001974547939501795</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P25" t="n">
-        <v>75.07642641075883</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q25" t="n">
-        <v>105.5483220324638</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999961967535215</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9990395437979379</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999961501171575</v>
+        <v>0.9999684164407366</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999837028667813</v>
+        <v>0.9999987724631316</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999896763936421</v>
+        <v>0.9999958252832108</v>
       </c>
       <c r="G26" t="n">
-        <v>3.550163644443486e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H26" t="n">
-        <v>0.000896543705470183</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I26" t="n">
-        <v>3.270153348190412e-06</v>
+        <v>5.445466703584143e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>1.882330325798017e-05</v>
+        <v>5.644750900211889e-07</v>
       </c>
       <c r="K26" t="n">
-        <v>1.104672830308529e-05</v>
+        <v>3.004970896802666e-06</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0001047539791933535</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M26" t="n">
-        <v>0.001884187794367506</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000091277915485</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O26" t="n">
-        <v>0.001964401569580163</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P26" t="n">
-        <v>75.09703371702611</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q26" t="n">
-        <v>105.5689293387311</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
   </sheetData>
